--- a/data/argentina_fallecidos.xlsx
+++ b/data/argentina_fallecidos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B55F0F-AA72-47C9-BF63-7B8338D24047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6E43B-472C-431C-9539-EFE53E801B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11025" yWindow="270" windowWidth="7110" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14850" yWindow="270" windowWidth="7065" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_fallecidos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">argentina_fallecidos!$A$1:$F$454</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">argentina_fallecidos!$A$1:$F$522</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="31">
   <si>
     <t>fecha</t>
   </si>
@@ -973,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F469"/>
+  <dimension ref="A1:F571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="A470" sqref="A470:XFD473"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="D562" sqref="D562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7595,8 +7595,1436 @@
         <v>6</v>
       </c>
     </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B470" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470" s="2">
+        <v>92</v>
+      </c>
+      <c r="D470" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B471" t="s">
+        <v>11</v>
+      </c>
+      <c r="C471" s="2">
+        <v>84</v>
+      </c>
+      <c r="D471" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B472" t="s">
+        <v>11</v>
+      </c>
+      <c r="C472" s="2">
+        <v>60</v>
+      </c>
+      <c r="D472" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B473" t="s">
+        <v>11</v>
+      </c>
+      <c r="C473" s="2">
+        <v>57</v>
+      </c>
+      <c r="D473" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+      <c r="C474" s="2">
+        <v>66</v>
+      </c>
+      <c r="D474" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C475" s="2">
+        <v>80</v>
+      </c>
+      <c r="D475" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476" s="2">
+        <v>71</v>
+      </c>
+      <c r="D476" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" s="2">
+        <v>55</v>
+      </c>
+      <c r="D477" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B478" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478" s="2">
+        <v>71</v>
+      </c>
+      <c r="D478" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479" s="2">
+        <v>80</v>
+      </c>
+      <c r="D479" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480" s="2">
+        <v>43</v>
+      </c>
+      <c r="D480" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481" s="2">
+        <v>71</v>
+      </c>
+      <c r="D481" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482" s="2">
+        <v>84</v>
+      </c>
+      <c r="D482" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483" s="2">
+        <v>39</v>
+      </c>
+      <c r="D483" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484" s="2">
+        <v>70</v>
+      </c>
+      <c r="D484" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B485" t="s">
+        <v>11</v>
+      </c>
+      <c r="C485" s="2">
+        <v>68</v>
+      </c>
+      <c r="D485" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B486" t="s">
+        <v>11</v>
+      </c>
+      <c r="C486" s="2">
+        <v>100</v>
+      </c>
+      <c r="D486" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B487" t="s">
+        <v>11</v>
+      </c>
+      <c r="C487" s="2">
+        <v>49</v>
+      </c>
+      <c r="D487" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B488" t="s">
+        <v>11</v>
+      </c>
+      <c r="C488" s="2">
+        <v>82</v>
+      </c>
+      <c r="D488" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B489" t="s">
+        <v>11</v>
+      </c>
+      <c r="C489" s="2">
+        <v>78</v>
+      </c>
+      <c r="D489" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B490" t="s">
+        <v>11</v>
+      </c>
+      <c r="C490" s="2">
+        <v>89</v>
+      </c>
+      <c r="D490" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B491" t="s">
+        <v>11</v>
+      </c>
+      <c r="C491" s="2">
+        <v>87</v>
+      </c>
+      <c r="D491" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B492" t="s">
+        <v>11</v>
+      </c>
+      <c r="C492" s="2">
+        <v>62</v>
+      </c>
+      <c r="D492" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B493" t="s">
+        <v>5</v>
+      </c>
+      <c r="C493" s="2">
+        <v>81</v>
+      </c>
+      <c r="D493" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B494" t="s">
+        <v>5</v>
+      </c>
+      <c r="C494" s="2">
+        <v>65</v>
+      </c>
+      <c r="D494" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B495" t="s">
+        <v>5</v>
+      </c>
+      <c r="C495" s="2">
+        <v>78</v>
+      </c>
+      <c r="D495" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B496" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496" s="2">
+        <v>75</v>
+      </c>
+      <c r="D496" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B497" t="s">
+        <v>5</v>
+      </c>
+      <c r="C497" s="2">
+        <v>66</v>
+      </c>
+      <c r="D497" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+      <c r="C498" s="2">
+        <v>73</v>
+      </c>
+      <c r="D498" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B499" t="s">
+        <v>11</v>
+      </c>
+      <c r="C499" s="2">
+        <v>87</v>
+      </c>
+      <c r="D499" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B500" t="s">
+        <v>11</v>
+      </c>
+      <c r="C500" s="2">
+        <v>95</v>
+      </c>
+      <c r="D500" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B501" t="s">
+        <v>11</v>
+      </c>
+      <c r="C501" s="2">
+        <v>78</v>
+      </c>
+      <c r="D501" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B502" t="s">
+        <v>11</v>
+      </c>
+      <c r="C502" s="2">
+        <v>60</v>
+      </c>
+      <c r="D502" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B503" t="s">
+        <v>11</v>
+      </c>
+      <c r="C503" s="2">
+        <v>79</v>
+      </c>
+      <c r="D503" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B504" t="s">
+        <v>5</v>
+      </c>
+      <c r="C504" s="2">
+        <v>91</v>
+      </c>
+      <c r="D504" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B505" t="s">
+        <v>5</v>
+      </c>
+      <c r="C505" s="2">
+        <v>90</v>
+      </c>
+      <c r="D505" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B506" t="s">
+        <v>5</v>
+      </c>
+      <c r="C506" s="2">
+        <v>71</v>
+      </c>
+      <c r="D506" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C507" s="2">
+        <v>34</v>
+      </c>
+      <c r="D507" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B508" t="s">
+        <v>5</v>
+      </c>
+      <c r="C508" s="2">
+        <v>87</v>
+      </c>
+      <c r="D508" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B509" t="s">
+        <v>11</v>
+      </c>
+      <c r="C509" s="2">
+        <v>78</v>
+      </c>
+      <c r="D509" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B510" t="s">
+        <v>11</v>
+      </c>
+      <c r="C510" s="2">
+        <v>44</v>
+      </c>
+      <c r="D510" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B511" t="s">
+        <v>5</v>
+      </c>
+      <c r="C511" s="2">
+        <v>62</v>
+      </c>
+      <c r="D511" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C512" s="2">
+        <v>43</v>
+      </c>
+      <c r="D512" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" s="2">
+        <v>46</v>
+      </c>
+      <c r="D513" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" s="2">
+        <v>55</v>
+      </c>
+      <c r="D514" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" s="2">
+        <v>32</v>
+      </c>
+      <c r="D515" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" s="2">
+        <v>80</v>
+      </c>
+      <c r="D516" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B517" t="s">
+        <v>11</v>
+      </c>
+      <c r="C517" s="2">
+        <v>102</v>
+      </c>
+      <c r="D517" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B518" t="s">
+        <v>11</v>
+      </c>
+      <c r="C518" s="2">
+        <v>93</v>
+      </c>
+      <c r="D518" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B519" t="s">
+        <v>11</v>
+      </c>
+      <c r="C519" s="2">
+        <v>69</v>
+      </c>
+      <c r="D519" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B520" t="s">
+        <v>11</v>
+      </c>
+      <c r="C520" s="2">
+        <v>78</v>
+      </c>
+      <c r="D520" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B521" t="s">
+        <v>11</v>
+      </c>
+      <c r="C521" s="2">
+        <v>95</v>
+      </c>
+      <c r="D521" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B522" t="s">
+        <v>11</v>
+      </c>
+      <c r="C522" s="2">
+        <v>57</v>
+      </c>
+      <c r="D522" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B523" t="s">
+        <v>5</v>
+      </c>
+      <c r="C523" s="2">
+        <v>68</v>
+      </c>
+      <c r="D523" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B524" t="s">
+        <v>5</v>
+      </c>
+      <c r="C524" s="2">
+        <v>69</v>
+      </c>
+      <c r="D524" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B525" t="s">
+        <v>11</v>
+      </c>
+      <c r="C525" s="2">
+        <v>87</v>
+      </c>
+      <c r="D525" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B526" t="s">
+        <v>11</v>
+      </c>
+      <c r="C526" s="2">
+        <v>53</v>
+      </c>
+      <c r="D526" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B527" t="s">
+        <v>5</v>
+      </c>
+      <c r="C527" s="2">
+        <v>64</v>
+      </c>
+      <c r="D527" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B528" t="s">
+        <v>11</v>
+      </c>
+      <c r="C528" s="2">
+        <v>95</v>
+      </c>
+      <c r="D528" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B529" t="s">
+        <v>11</v>
+      </c>
+      <c r="C529" s="2">
+        <v>88</v>
+      </c>
+      <c r="D529" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B530" t="s">
+        <v>11</v>
+      </c>
+      <c r="C530" s="2">
+        <v>94</v>
+      </c>
+      <c r="D530" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B531" t="s">
+        <v>11</v>
+      </c>
+      <c r="C531" s="2">
+        <v>72</v>
+      </c>
+      <c r="D531" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B532" t="s">
+        <v>11</v>
+      </c>
+      <c r="C532" s="2">
+        <v>47</v>
+      </c>
+      <c r="D532" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B533" t="s">
+        <v>5</v>
+      </c>
+      <c r="C533" s="2">
+        <v>62</v>
+      </c>
+      <c r="D533" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B534" t="s">
+        <v>5</v>
+      </c>
+      <c r="C534" s="2">
+        <v>47</v>
+      </c>
+      <c r="D534" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B535" t="s">
+        <v>5</v>
+      </c>
+      <c r="C535" s="2">
+        <v>91</v>
+      </c>
+      <c r="D535" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B536" t="s">
+        <v>5</v>
+      </c>
+      <c r="C536" s="2">
+        <v>57</v>
+      </c>
+      <c r="D536" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B537" t="s">
+        <v>5</v>
+      </c>
+      <c r="C537" s="2">
+        <v>86</v>
+      </c>
+      <c r="D537" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B538" t="s">
+        <v>11</v>
+      </c>
+      <c r="C538" s="2">
+        <v>93</v>
+      </c>
+      <c r="D538" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B539" t="s">
+        <v>11</v>
+      </c>
+      <c r="C539" s="2">
+        <v>68</v>
+      </c>
+      <c r="D539" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B540" t="s">
+        <v>11</v>
+      </c>
+      <c r="C540" s="2">
+        <v>67</v>
+      </c>
+      <c r="D540" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B541" t="s">
+        <v>11</v>
+      </c>
+      <c r="C541" s="2">
+        <v>85</v>
+      </c>
+      <c r="D541" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B542" t="s">
+        <v>5</v>
+      </c>
+      <c r="C542" s="2">
+        <v>86</v>
+      </c>
+      <c r="D542" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B543" t="s">
+        <v>5</v>
+      </c>
+      <c r="C543" s="2">
+        <v>69</v>
+      </c>
+      <c r="D543" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B544" t="s">
+        <v>5</v>
+      </c>
+      <c r="C544" s="2">
+        <v>80</v>
+      </c>
+      <c r="D544" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B545" t="s">
+        <v>5</v>
+      </c>
+      <c r="C545" s="2">
+        <v>56</v>
+      </c>
+      <c r="D545" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B546" t="s">
+        <v>5</v>
+      </c>
+      <c r="C546" s="2">
+        <v>78</v>
+      </c>
+      <c r="D546" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C547" s="2">
+        <v>72</v>
+      </c>
+      <c r="D547" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B548" t="s">
+        <v>5</v>
+      </c>
+      <c r="C548" s="2">
+        <v>70</v>
+      </c>
+      <c r="D548" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B549" t="s">
+        <v>5</v>
+      </c>
+      <c r="C549" s="2">
+        <v>50</v>
+      </c>
+      <c r="D549" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B550" t="s">
+        <v>5</v>
+      </c>
+      <c r="C550" s="2">
+        <v>44</v>
+      </c>
+      <c r="D550" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B551" t="s">
+        <v>5</v>
+      </c>
+      <c r="C551" s="2">
+        <v>47</v>
+      </c>
+      <c r="D551" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B552" t="s">
+        <v>5</v>
+      </c>
+      <c r="C552" s="2">
+        <v>70</v>
+      </c>
+      <c r="D552" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B553" t="s">
+        <v>11</v>
+      </c>
+      <c r="C553" s="2">
+        <v>91</v>
+      </c>
+      <c r="D553" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B554" t="s">
+        <v>11</v>
+      </c>
+      <c r="C554" s="2">
+        <v>92</v>
+      </c>
+      <c r="D554" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B555" t="s">
+        <v>11</v>
+      </c>
+      <c r="C555" s="2">
+        <v>70</v>
+      </c>
+      <c r="D555" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B556" t="s">
+        <v>11</v>
+      </c>
+      <c r="C556" s="2">
+        <v>83</v>
+      </c>
+      <c r="D556" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B557" t="s">
+        <v>11</v>
+      </c>
+      <c r="C557" s="2">
+        <v>14</v>
+      </c>
+      <c r="D557" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B558" t="s">
+        <v>11</v>
+      </c>
+      <c r="C558" s="2">
+        <v>81</v>
+      </c>
+      <c r="D558" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B559" t="s">
+        <v>5</v>
+      </c>
+      <c r="C559" s="2">
+        <v>64</v>
+      </c>
+      <c r="D559" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B560" t="s">
+        <v>11</v>
+      </c>
+      <c r="C560" s="2">
+        <v>39</v>
+      </c>
+      <c r="D560" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B561" t="s">
+        <v>11</v>
+      </c>
+      <c r="C561" s="2">
+        <v>94</v>
+      </c>
+      <c r="D561" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B562" t="s">
+        <v>11</v>
+      </c>
+      <c r="C562" s="2">
+        <v>88</v>
+      </c>
+      <c r="D562" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B563" t="s">
+        <v>5</v>
+      </c>
+      <c r="C563" s="2">
+        <v>84</v>
+      </c>
+      <c r="D563" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B564" t="s">
+        <v>5</v>
+      </c>
+      <c r="C564" s="2">
+        <v>65</v>
+      </c>
+      <c r="D564" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B565" t="s">
+        <v>5</v>
+      </c>
+      <c r="C565" s="2">
+        <v>53</v>
+      </c>
+      <c r="D565" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B566" t="s">
+        <v>5</v>
+      </c>
+      <c r="C566" s="2">
+        <v>76</v>
+      </c>
+      <c r="D566" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B567" t="s">
+        <v>11</v>
+      </c>
+      <c r="C567" s="2">
+        <v>76</v>
+      </c>
+      <c r="D567" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B568" t="s">
+        <v>11</v>
+      </c>
+      <c r="C568" s="2">
+        <v>86</v>
+      </c>
+      <c r="D568" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B569" t="s">
+        <v>11</v>
+      </c>
+      <c r="C569" s="2">
+        <v>76</v>
+      </c>
+      <c r="D569" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B570" t="s">
+        <v>11</v>
+      </c>
+      <c r="C570" s="2">
+        <v>51</v>
+      </c>
+      <c r="D570" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B571" t="s">
+        <v>11</v>
+      </c>
+      <c r="C571" s="2">
+        <v>92</v>
+      </c>
+      <c r="D571" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F454" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F522" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/argentina_fallecidos.xlsx
+++ b/data/argentina_fallecidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6E43B-472C-431C-9539-EFE53E801B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BA389-B1C7-41B5-9FD4-157E88F50B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14850" yWindow="270" windowWidth="7065" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11070" yWindow="0" windowWidth="8325" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_fallecidos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="31">
   <si>
     <t>fecha</t>
   </si>
@@ -973,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F571"/>
+  <dimension ref="A1:F650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="D562" sqref="D562"/>
+    <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
+      <selection activeCell="C650" sqref="C650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9023,6 +9023,1112 @@
         <v>6</v>
       </c>
     </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B572" t="s">
+        <v>11</v>
+      </c>
+      <c r="C572" s="2">
+        <v>58</v>
+      </c>
+      <c r="D572" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B573" t="s">
+        <v>5</v>
+      </c>
+      <c r="C573" s="2">
+        <v>85</v>
+      </c>
+      <c r="D573" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B574" t="s">
+        <v>5</v>
+      </c>
+      <c r="C574" s="2">
+        <v>75</v>
+      </c>
+      <c r="D574" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B575" t="s">
+        <v>5</v>
+      </c>
+      <c r="C575" s="2">
+        <v>54</v>
+      </c>
+      <c r="D575" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B576" t="s">
+        <v>5</v>
+      </c>
+      <c r="C576" s="2">
+        <v>59</v>
+      </c>
+      <c r="D576" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B577" t="s">
+        <v>5</v>
+      </c>
+      <c r="C577" s="2">
+        <v>63</v>
+      </c>
+      <c r="D577" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B578" t="s">
+        <v>5</v>
+      </c>
+      <c r="C578" s="2">
+        <v>58</v>
+      </c>
+      <c r="D578" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B579" t="s">
+        <v>5</v>
+      </c>
+      <c r="C579" s="2">
+        <v>83</v>
+      </c>
+      <c r="D579" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B580" t="s">
+        <v>5</v>
+      </c>
+      <c r="C580" s="2">
+        <v>74</v>
+      </c>
+      <c r="D580" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B581" t="s">
+        <v>11</v>
+      </c>
+      <c r="C581" s="2">
+        <v>71</v>
+      </c>
+      <c r="D581" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B582" t="s">
+        <v>11</v>
+      </c>
+      <c r="C582" s="2">
+        <v>72</v>
+      </c>
+      <c r="D582" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B583" t="s">
+        <v>11</v>
+      </c>
+      <c r="C583" s="2">
+        <v>77</v>
+      </c>
+      <c r="D583" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B584" t="s">
+        <v>11</v>
+      </c>
+      <c r="C584" s="2">
+        <v>78</v>
+      </c>
+      <c r="D584" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B585" t="s">
+        <v>11</v>
+      </c>
+      <c r="C585" s="2">
+        <v>83</v>
+      </c>
+      <c r="D585" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B586" t="s">
+        <v>11</v>
+      </c>
+      <c r="C586" s="2">
+        <v>84</v>
+      </c>
+      <c r="D586" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B587" t="s">
+        <v>11</v>
+      </c>
+      <c r="C587" s="2">
+        <v>45</v>
+      </c>
+      <c r="D587" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B588" t="s">
+        <v>11</v>
+      </c>
+      <c r="C588" s="2">
+        <v>88</v>
+      </c>
+      <c r="D588" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B589" t="s">
+        <v>5</v>
+      </c>
+      <c r="C589" s="2">
+        <v>57</v>
+      </c>
+      <c r="D589" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B590" t="s">
+        <v>5</v>
+      </c>
+      <c r="C590" s="2">
+        <v>56</v>
+      </c>
+      <c r="D590" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B591" t="s">
+        <v>5</v>
+      </c>
+      <c r="C591" s="2">
+        <v>69</v>
+      </c>
+      <c r="D591" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B592" t="s">
+        <v>5</v>
+      </c>
+      <c r="C592" s="2">
+        <v>90</v>
+      </c>
+      <c r="D592" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B593" t="s">
+        <v>5</v>
+      </c>
+      <c r="C593" s="2">
+        <v>51</v>
+      </c>
+      <c r="D593" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B594" t="s">
+        <v>5</v>
+      </c>
+      <c r="C594" s="2">
+        <v>64</v>
+      </c>
+      <c r="D594" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B595" t="s">
+        <v>5</v>
+      </c>
+      <c r="C595" s="2">
+        <v>62</v>
+      </c>
+      <c r="D595" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B596" t="s">
+        <v>5</v>
+      </c>
+      <c r="C596" s="2">
+        <v>84</v>
+      </c>
+      <c r="D596" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B597" t="s">
+        <v>5</v>
+      </c>
+      <c r="C597" s="2">
+        <v>64</v>
+      </c>
+      <c r="D597" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B598" t="s">
+        <v>5</v>
+      </c>
+      <c r="C598" s="2">
+        <v>68</v>
+      </c>
+      <c r="D598" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B599" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599" s="2">
+        <v>36</v>
+      </c>
+      <c r="D599" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B600" t="s">
+        <v>5</v>
+      </c>
+      <c r="C600" s="2">
+        <v>71</v>
+      </c>
+      <c r="D600" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B601" t="s">
+        <v>5</v>
+      </c>
+      <c r="C601" s="2">
+        <v>64</v>
+      </c>
+      <c r="D601" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B602" t="s">
+        <v>5</v>
+      </c>
+      <c r="C602" s="2">
+        <v>54</v>
+      </c>
+      <c r="D602" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B603" t="s">
+        <v>5</v>
+      </c>
+      <c r="C603" s="2">
+        <v>89</v>
+      </c>
+      <c r="D603" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B604" t="s">
+        <v>5</v>
+      </c>
+      <c r="C604" s="2">
+        <v>57</v>
+      </c>
+      <c r="D604" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B605" t="s">
+        <v>11</v>
+      </c>
+      <c r="C605" s="2">
+        <v>56</v>
+      </c>
+      <c r="D605" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B606" t="s">
+        <v>11</v>
+      </c>
+      <c r="C606" s="2">
+        <v>88</v>
+      </c>
+      <c r="D606" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B607" t="s">
+        <v>11</v>
+      </c>
+      <c r="C607" s="2">
+        <v>88</v>
+      </c>
+      <c r="D607" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B608" t="s">
+        <v>11</v>
+      </c>
+      <c r="C608" s="2">
+        <v>85</v>
+      </c>
+      <c r="D608" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B609" t="s">
+        <v>11</v>
+      </c>
+      <c r="C609" s="2">
+        <v>84</v>
+      </c>
+      <c r="D609" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B610" t="s">
+        <v>11</v>
+      </c>
+      <c r="C610" s="2">
+        <v>54</v>
+      </c>
+      <c r="D610" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B611" t="s">
+        <v>11</v>
+      </c>
+      <c r="C611" s="2">
+        <v>42</v>
+      </c>
+      <c r="D611" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B612" t="s">
+        <v>11</v>
+      </c>
+      <c r="C612" s="2">
+        <v>84</v>
+      </c>
+      <c r="D612" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B613" t="s">
+        <v>11</v>
+      </c>
+      <c r="C613" s="2">
+        <v>95</v>
+      </c>
+      <c r="D613" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B614" t="s">
+        <v>11</v>
+      </c>
+      <c r="C614" s="2">
+        <v>79</v>
+      </c>
+      <c r="D614" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B615" t="s">
+        <v>11</v>
+      </c>
+      <c r="C615" s="2">
+        <v>48</v>
+      </c>
+      <c r="D615" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B616" t="s">
+        <v>5</v>
+      </c>
+      <c r="C616" s="2">
+        <v>69</v>
+      </c>
+      <c r="D616" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B617" t="s">
+        <v>11</v>
+      </c>
+      <c r="C617" s="2">
+        <v>75</v>
+      </c>
+      <c r="D617" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B618" t="s">
+        <v>5</v>
+      </c>
+      <c r="C618" s="2">
+        <v>77</v>
+      </c>
+      <c r="D618" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B619" t="s">
+        <v>5</v>
+      </c>
+      <c r="C619" s="2">
+        <v>84</v>
+      </c>
+      <c r="D619" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B620" t="s">
+        <v>5</v>
+      </c>
+      <c r="C620" s="2">
+        <v>76</v>
+      </c>
+      <c r="D620" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B621" t="s">
+        <v>5</v>
+      </c>
+      <c r="C621" s="2">
+        <v>31</v>
+      </c>
+      <c r="D621" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B622" t="s">
+        <v>5</v>
+      </c>
+      <c r="C622" s="2">
+        <v>38</v>
+      </c>
+      <c r="D622" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B623" t="s">
+        <v>5</v>
+      </c>
+      <c r="C623" s="2">
+        <v>61</v>
+      </c>
+      <c r="D623" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B624" t="s">
+        <v>5</v>
+      </c>
+      <c r="C624" s="2">
+        <v>50</v>
+      </c>
+      <c r="D624" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B625" t="s">
+        <v>5</v>
+      </c>
+      <c r="C625" s="2">
+        <v>57</v>
+      </c>
+      <c r="D625" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B626" t="s">
+        <v>5</v>
+      </c>
+      <c r="C626" s="2">
+        <v>46</v>
+      </c>
+      <c r="D626" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B627" t="s">
+        <v>5</v>
+      </c>
+      <c r="C627" s="2">
+        <v>54</v>
+      </c>
+      <c r="D627" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B628" t="s">
+        <v>5</v>
+      </c>
+      <c r="C628" s="2">
+        <v>92</v>
+      </c>
+      <c r="D628" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B629" t="s">
+        <v>5</v>
+      </c>
+      <c r="C629" s="2">
+        <v>93</v>
+      </c>
+      <c r="D629" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B630" t="s">
+        <v>11</v>
+      </c>
+      <c r="C630" s="2">
+        <v>76</v>
+      </c>
+      <c r="D630" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B631" t="s">
+        <v>11</v>
+      </c>
+      <c r="C631" s="2">
+        <v>31</v>
+      </c>
+      <c r="D631" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B632" t="s">
+        <v>11</v>
+      </c>
+      <c r="C632" s="2">
+        <v>73</v>
+      </c>
+      <c r="D632" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B633" t="s">
+        <v>11</v>
+      </c>
+      <c r="C633" s="2">
+        <v>67</v>
+      </c>
+      <c r="D633" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B634" t="s">
+        <v>11</v>
+      </c>
+      <c r="C634" s="2">
+        <v>35</v>
+      </c>
+      <c r="D634" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B635" t="s">
+        <v>11</v>
+      </c>
+      <c r="C635" s="2">
+        <v>98</v>
+      </c>
+      <c r="D635" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B636" t="s">
+        <v>11</v>
+      </c>
+      <c r="C636" s="2">
+        <v>85</v>
+      </c>
+      <c r="D636" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B637" t="s">
+        <v>11</v>
+      </c>
+      <c r="C637" s="2">
+        <v>77</v>
+      </c>
+      <c r="D637" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B638" t="s">
+        <v>11</v>
+      </c>
+      <c r="C638" s="2">
+        <v>89</v>
+      </c>
+      <c r="D638" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B639" t="s">
+        <v>11</v>
+      </c>
+      <c r="C639" s="2">
+        <v>81</v>
+      </c>
+      <c r="D639" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B640" t="s">
+        <v>11</v>
+      </c>
+      <c r="C640" s="2">
+        <v>90</v>
+      </c>
+      <c r="D640" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B641" t="s">
+        <v>11</v>
+      </c>
+      <c r="C641" s="2">
+        <v>50</v>
+      </c>
+      <c r="D641" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B642" t="s">
+        <v>5</v>
+      </c>
+      <c r="C642" s="2">
+        <v>64</v>
+      </c>
+      <c r="D642" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B643" t="s">
+        <v>5</v>
+      </c>
+      <c r="C643" s="2">
+        <v>56</v>
+      </c>
+      <c r="D643" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B644" t="s">
+        <v>5</v>
+      </c>
+      <c r="C644" s="2">
+        <v>67</v>
+      </c>
+      <c r="D644" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B645" t="s">
+        <v>5</v>
+      </c>
+      <c r="C645" s="2">
+        <v>47</v>
+      </c>
+      <c r="D645" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B646" t="s">
+        <v>5</v>
+      </c>
+      <c r="C646" s="2">
+        <v>73</v>
+      </c>
+      <c r="D646" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B647" t="s">
+        <v>5</v>
+      </c>
+      <c r="C647" s="2">
+        <v>88</v>
+      </c>
+      <c r="D647" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B648" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648" s="2">
+        <v>60</v>
+      </c>
+      <c r="D648" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B649" t="s">
+        <v>11</v>
+      </c>
+      <c r="C649" s="2">
+        <v>77</v>
+      </c>
+      <c r="D649" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B650" t="s">
+        <v>11</v>
+      </c>
+      <c r="C650" s="2">
+        <v>90</v>
+      </c>
+      <c r="D650" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F522" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/argentina_fallecidos.xlsx
+++ b/data/argentina_fallecidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BA389-B1C7-41B5-9FD4-157E88F50B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EDDE55-0838-42FD-93EC-D1D9D4F51846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="0" windowWidth="8325" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="735" windowWidth="6930" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_fallecidos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="31">
   <si>
     <t>fecha</t>
   </si>
@@ -973,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F650"/>
+  <dimension ref="A1:F666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
-      <selection activeCell="C650" sqref="C650"/>
+    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="A666" sqref="A666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10129,6 +10129,227 @@
         <v>6</v>
       </c>
     </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B651" t="s">
+        <v>11</v>
+      </c>
+      <c r="C651" s="2">
+        <v>79</v>
+      </c>
+      <c r="D651" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B652" t="s">
+        <v>11</v>
+      </c>
+      <c r="C652" s="2">
+        <v>82</v>
+      </c>
+      <c r="D652" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B653" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653" s="2">
+        <v>88</v>
+      </c>
+      <c r="D653" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B654" t="s">
+        <v>11</v>
+      </c>
+      <c r="C654" s="2">
+        <v>82</v>
+      </c>
+      <c r="D654" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B655" t="s">
+        <v>11</v>
+      </c>
+      <c r="C655" s="2">
+        <v>52</v>
+      </c>
+      <c r="D655" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B656" t="s">
+        <v>11</v>
+      </c>
+      <c r="C656" s="2">
+        <v>52</v>
+      </c>
+      <c r="D656" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B657" t="s">
+        <v>11</v>
+      </c>
+      <c r="C657" s="2">
+        <v>78</v>
+      </c>
+      <c r="D657" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B658" t="s">
+        <v>5</v>
+      </c>
+      <c r="C658" s="2">
+        <v>61</v>
+      </c>
+      <c r="D658" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B659" t="s">
+        <v>5</v>
+      </c>
+      <c r="C659" s="2">
+        <v>71</v>
+      </c>
+      <c r="D659" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B660" t="s">
+        <v>5</v>
+      </c>
+      <c r="C660" s="2">
+        <v>85</v>
+      </c>
+      <c r="D660" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B661" t="s">
+        <v>5</v>
+      </c>
+      <c r="C661" s="2">
+        <v>56</v>
+      </c>
+      <c r="D661" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B662" t="s">
+        <v>5</v>
+      </c>
+      <c r="C662" s="2">
+        <v>65</v>
+      </c>
+      <c r="D662" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B663" t="s">
+        <v>5</v>
+      </c>
+      <c r="D663" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B664" t="s">
+        <v>11</v>
+      </c>
+      <c r="C664" s="2">
+        <v>84</v>
+      </c>
+      <c r="D664" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B665" t="s">
+        <v>11</v>
+      </c>
+      <c r="C665" s="2">
+        <v>69</v>
+      </c>
+      <c r="D665" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B666" t="s">
+        <v>11</v>
+      </c>
+      <c r="C666" s="2">
+        <v>73</v>
+      </c>
+      <c r="D666" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F522" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
